--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1517.542856393535</v>
+        <v>1762.187557314682</v>
       </c>
       <c r="AB2" t="n">
-        <v>2076.369085383416</v>
+        <v>2411.102758146205</v>
       </c>
       <c r="AC2" t="n">
-        <v>1878.203334076737</v>
+        <v>2180.990494912705</v>
       </c>
       <c r="AD2" t="n">
-        <v>1517542.856393535</v>
+        <v>1762187.557314682</v>
       </c>
       <c r="AE2" t="n">
-        <v>2076369.085383416</v>
+        <v>2411102.758146205</v>
       </c>
       <c r="AF2" t="n">
         <v>3.296019929150372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1878203.334076737</v>
+        <v>2180990.494912705</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>775.8266935566054</v>
+        <v>922.5871928041263</v>
       </c>
       <c r="AB3" t="n">
-        <v>1061.520309182243</v>
+        <v>1262.324498868973</v>
       </c>
       <c r="AC3" t="n">
-        <v>960.2103007270005</v>
+        <v>1141.850020380478</v>
       </c>
       <c r="AD3" t="n">
-        <v>775826.6935566054</v>
+        <v>922587.1928041263</v>
       </c>
       <c r="AE3" t="n">
-        <v>1061520.309182243</v>
+        <v>1262324.498868973</v>
       </c>
       <c r="AF3" t="n">
         <v>5.173777333198956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.33854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>960210.3007270005</v>
+        <v>1141850.020380478</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>633.1592767059198</v>
+        <v>770.1644090720159</v>
       </c>
       <c r="AB4" t="n">
-        <v>866.316455404915</v>
+        <v>1053.772921748067</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.636428783851</v>
+        <v>953.2023130760149</v>
       </c>
       <c r="AD4" t="n">
-        <v>633159.2767059198</v>
+        <v>770164.4090720159</v>
       </c>
       <c r="AE4" t="n">
-        <v>866316.455404915</v>
+        <v>1053772.921748067</v>
       </c>
       <c r="AF4" t="n">
         <v>5.884957759690589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.67317708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>783636.428783851</v>
+        <v>953202.3130760149</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>559.6740170303323</v>
+        <v>686.8906281260799</v>
       </c>
       <c r="AB5" t="n">
-        <v>765.7706811759241</v>
+        <v>939.8340608779043</v>
       </c>
       <c r="AC5" t="n">
-        <v>692.6866021303945</v>
+        <v>850.1376171731052</v>
       </c>
       <c r="AD5" t="n">
-        <v>559674.0170303322</v>
+        <v>686890.6281260799</v>
       </c>
       <c r="AE5" t="n">
-        <v>765770.6811759241</v>
+        <v>939834.0608779043</v>
       </c>
       <c r="AF5" t="n">
         <v>6.292138688620882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.94140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>692686.6021303944</v>
+        <v>850137.6171731052</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.9467413633367</v>
+        <v>652.3416767998126</v>
       </c>
       <c r="AB6" t="n">
-        <v>731.9377317179299</v>
+        <v>892.5626614811448</v>
       </c>
       <c r="AC6" t="n">
-        <v>662.0826218838282</v>
+        <v>807.3777337889469</v>
       </c>
       <c r="AD6" t="n">
-        <v>534946.7413633368</v>
+        <v>652341.6767998126</v>
       </c>
       <c r="AE6" t="n">
-        <v>731937.7317179298</v>
+        <v>892562.6614811448</v>
       </c>
       <c r="AF6" t="n">
         <v>6.469331099967103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>662082.6218838282</v>
+        <v>807377.7337889469</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>536.219269405359</v>
+        <v>653.6142048418349</v>
       </c>
       <c r="AB7" t="n">
-        <v>733.6788607249997</v>
+        <v>894.3037904882146</v>
       </c>
       <c r="AC7" t="n">
-        <v>663.6575799821533</v>
+        <v>808.9526918872718</v>
       </c>
       <c r="AD7" t="n">
-        <v>536219.2694053591</v>
+        <v>653614.2048418348</v>
       </c>
       <c r="AE7" t="n">
-        <v>733678.8607249997</v>
+        <v>894303.7904882147</v>
       </c>
       <c r="AF7" t="n">
         <v>6.469331099967103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>663657.5799821533</v>
+        <v>808952.6918872718</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1104.592126058526</v>
+        <v>1298.135789252983</v>
       </c>
       <c r="AB2" t="n">
-        <v>1511.351678038604</v>
+        <v>1776.166656565061</v>
       </c>
       <c r="AC2" t="n">
-        <v>1367.110395082001</v>
+        <v>1606.65180372805</v>
       </c>
       <c r="AD2" t="n">
-        <v>1104592.126058526</v>
+        <v>1298135.789252983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1511351.678038604</v>
+        <v>1776166.656565061</v>
       </c>
       <c r="AF2" t="n">
         <v>4.289388945610884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1367110.395082001</v>
+        <v>1606651.80372805</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.9934206201863</v>
+        <v>780.1333270342465</v>
       </c>
       <c r="AB3" t="n">
-        <v>868.8260120251332</v>
+        <v>1067.412835101611</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.9064768424201</v>
+        <v>965.5404522428363</v>
       </c>
       <c r="AD3" t="n">
-        <v>634993.4206201863</v>
+        <v>780133.3270342464</v>
       </c>
       <c r="AE3" t="n">
-        <v>868826.0120251332</v>
+        <v>1067412.835101611</v>
       </c>
       <c r="AF3" t="n">
         <v>6.14853741671755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>785906.4768424202</v>
+        <v>965540.4522428362</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.1685552082433</v>
+        <v>651.3019906206171</v>
       </c>
       <c r="AB4" t="n">
-        <v>732.2412272062672</v>
+        <v>891.1401169830526</v>
       </c>
       <c r="AC4" t="n">
-        <v>662.3571521887172</v>
+        <v>806.0909549411987</v>
       </c>
       <c r="AD4" t="n">
-        <v>535168.5552082433</v>
+        <v>651301.9906206171</v>
       </c>
       <c r="AE4" t="n">
-        <v>732241.2272062672</v>
+        <v>891140.1169830526</v>
       </c>
       <c r="AF4" t="n">
         <v>6.862072691170377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>662357.1521887173</v>
+        <v>806090.9549411987</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.0837997947305</v>
+        <v>634.8967733273553</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.5509140713078</v>
+        <v>868.6937749353042</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.0730724476895</v>
+        <v>785.7868602748486</v>
       </c>
       <c r="AD5" t="n">
-        <v>509083.7997947305</v>
+        <v>634896.7733273553</v>
       </c>
       <c r="AE5" t="n">
-        <v>696550.9140713079</v>
+        <v>868693.7749353042</v>
       </c>
       <c r="AF5" t="n">
         <v>7.006098665237381e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.51171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>630073.0724476895</v>
+        <v>785786.8602748485</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.0767759429671</v>
+        <v>627.9520350726531</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.122374324818</v>
+        <v>859.1916776749922</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.2124494770043</v>
+        <v>777.1916298407835</v>
       </c>
       <c r="AD2" t="n">
-        <v>497076.775942967</v>
+        <v>627952.0350726531</v>
       </c>
       <c r="AE2" t="n">
-        <v>680122.374324818</v>
+        <v>859191.6776749922</v>
       </c>
       <c r="AF2" t="n">
         <v>8.753231276810336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>615212.4494770042</v>
+        <v>777191.6298407835</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.4045545531278</v>
+        <v>604.3471334905182</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.7329966745384</v>
+        <v>826.8944099555539</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.9142685708902</v>
+        <v>747.9767680229885</v>
       </c>
       <c r="AD3" t="n">
-        <v>473404.5545531277</v>
+        <v>604347.1334905182</v>
       </c>
       <c r="AE3" t="n">
-        <v>647732.9966745384</v>
+        <v>826894.4099555539</v>
       </c>
       <c r="AF3" t="n">
         <v>9.011697178901731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>585914.2685708902</v>
+        <v>747976.7680229885</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.833739130189</v>
+        <v>822.4533759593659</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.8643169737784</v>
+        <v>1125.31699306975</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.2646347924601</v>
+        <v>1017.918318643492</v>
       </c>
       <c r="AD2" t="n">
-        <v>670833.7391301889</v>
+        <v>822453.3759593659</v>
       </c>
       <c r="AE2" t="n">
-        <v>917864.3169737784</v>
+        <v>1125316.99306975</v>
       </c>
       <c r="AF2" t="n">
         <v>6.648298921140159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>830264.6347924601</v>
+        <v>1017918.318643492</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.4888031644745</v>
+        <v>603.6607296082149</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.4259781595741</v>
+        <v>825.9552418817846</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.682165507179</v>
+        <v>747.1272328320488</v>
       </c>
       <c r="AD3" t="n">
-        <v>480488.8031644744</v>
+        <v>603660.7296082148</v>
       </c>
       <c r="AE3" t="n">
-        <v>657425.9781595741</v>
+        <v>825955.2418817845</v>
       </c>
       <c r="AF3" t="n">
         <v>8.162826755556528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>594682.165507179</v>
+        <v>747127.2328320488</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.9858410451797</v>
+        <v>605.1577674889199</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.4742914326049</v>
+        <v>828.0035551548153</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.5349906362576</v>
+        <v>748.9800579611274</v>
       </c>
       <c r="AD4" t="n">
-        <v>481985.8410451796</v>
+        <v>605157.7674889199</v>
       </c>
       <c r="AE4" t="n">
-        <v>659474.2914326049</v>
+        <v>828003.5551548153</v>
       </c>
       <c r="AF4" t="n">
         <v>8.162507907591389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>596534.9906362576</v>
+        <v>748980.0579611274</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.1917293080417</v>
+        <v>611.6418141768178</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.755996837002</v>
+        <v>836.8753138891479</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.789810472235</v>
+        <v>757.0051084934471</v>
       </c>
       <c r="AD2" t="n">
-        <v>482191.7293080417</v>
+        <v>611641.8141768178</v>
       </c>
       <c r="AE2" t="n">
-        <v>659755.996837002</v>
+        <v>836875.3138891479</v>
       </c>
       <c r="AF2" t="n">
         <v>9.708931425261623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.27473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>596789.810472235</v>
+        <v>757005.1084934471</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1186.710236727048</v>
+        <v>1400.238337263675</v>
       </c>
       <c r="AB2" t="n">
-        <v>1623.709299850634</v>
+        <v>1915.867867199799</v>
       </c>
       <c r="AC2" t="n">
-        <v>1468.744763163204</v>
+        <v>1733.02012689169</v>
       </c>
       <c r="AD2" t="n">
-        <v>1186710.236727048</v>
+        <v>1400238.337263675</v>
       </c>
       <c r="AE2" t="n">
-        <v>1623709.299850634</v>
+        <v>1915867.867199799</v>
       </c>
       <c r="AF2" t="n">
         <v>4.01845075456951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.70572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1468744.763163204</v>
+        <v>1733020.12689169</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.1952656650089</v>
+        <v>816.6935455021444</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.3589735281444</v>
+        <v>1117.436138932394</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.7120820195321</v>
+        <v>1010.789602164157</v>
       </c>
       <c r="AD3" t="n">
-        <v>671195.2656650089</v>
+        <v>816693.5455021444</v>
       </c>
       <c r="AE3" t="n">
-        <v>918358.9735281444</v>
+        <v>1117436.138932394</v>
       </c>
       <c r="AF3" t="n">
         <v>5.882882169299314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>830712.0820195321</v>
+        <v>1010789.602164157</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.80986252614</v>
+        <v>682.9244503844029</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.8518186257095</v>
+        <v>934.4073615163287</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.1417503218141</v>
+        <v>845.2288343821781</v>
       </c>
       <c r="AD4" t="n">
-        <v>556809.8625261401</v>
+        <v>682924.4503844029</v>
       </c>
       <c r="AE4" t="n">
-        <v>761851.8186257095</v>
+        <v>934407.3615163288</v>
       </c>
       <c r="AF4" t="n">
         <v>6.593595290391263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>689141.7503218141</v>
+        <v>845228.8343821781</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.5283470117254</v>
+        <v>642.6087694512073</v>
       </c>
       <c r="AB5" t="n">
-        <v>706.736872003844</v>
+        <v>879.2456682612153</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.2868968512259</v>
+        <v>795.3316957114101</v>
       </c>
       <c r="AD5" t="n">
-        <v>516528.3470117254</v>
+        <v>642608.7694512074</v>
       </c>
       <c r="AE5" t="n">
-        <v>706736.872003844</v>
+        <v>879245.6682612153</v>
       </c>
       <c r="AF5" t="n">
         <v>6.843799257686218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.48567708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>639286.896851226</v>
+        <v>795331.6957114101</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>516.5055579481199</v>
+        <v>642.5859803876018</v>
       </c>
       <c r="AB6" t="n">
-        <v>706.7056910016364</v>
+        <v>879.2144872590078</v>
       </c>
       <c r="AC6" t="n">
-        <v>639.2586917201062</v>
+        <v>795.3034905802904</v>
       </c>
       <c r="AD6" t="n">
-        <v>516505.5579481198</v>
+        <v>642585.9803876018</v>
       </c>
       <c r="AE6" t="n">
-        <v>706705.6910016364</v>
+        <v>879214.4872590078</v>
       </c>
       <c r="AF6" t="n">
         <v>6.859758770003386e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>639258.6917201062</v>
+        <v>795303.4905802903</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.466472386747</v>
+        <v>626.3092478336745</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.3413771394139</v>
+        <v>856.9439436999636</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.5558141282418</v>
+        <v>775.1584164416171</v>
       </c>
       <c r="AD2" t="n">
-        <v>488466.472386747</v>
+        <v>626309.2478336744</v>
       </c>
       <c r="AE2" t="n">
-        <v>668341.377139414</v>
+        <v>856943.9436999636</v>
       </c>
       <c r="AF2" t="n">
         <v>1.011763798180204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>604555.8141282417</v>
+        <v>775158.4164416171</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.0774763789708</v>
+        <v>1035.56797925716</v>
       </c>
       <c r="AB2" t="n">
-        <v>1180.900679472677</v>
+        <v>1416.909795254534</v>
       </c>
       <c r="AC2" t="n">
-        <v>1068.197176028317</v>
+        <v>1281.681913040828</v>
       </c>
       <c r="AD2" t="n">
-        <v>863077.4763789708</v>
+        <v>1035567.979257161</v>
       </c>
       <c r="AE2" t="n">
-        <v>1180900.679472676</v>
+        <v>1416909.795254534</v>
       </c>
       <c r="AF2" t="n">
         <v>5.292562463361126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.28645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1068197.176028317</v>
+        <v>1281681.913040828</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.3723680903144</v>
+        <v>670.9548174693194</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.5707782688564</v>
+        <v>918.0299816989764</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.2236724130531</v>
+        <v>830.414488708797</v>
       </c>
       <c r="AD3" t="n">
-        <v>546372.3680903143</v>
+        <v>670954.8174693194</v>
       </c>
       <c r="AE3" t="n">
-        <v>747570.7782688565</v>
+        <v>918029.9816989764</v>
       </c>
       <c r="AF3" t="n">
         <v>7.119661037586705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.23046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>676223.6724130531</v>
+        <v>830414.4887087969</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.0627403156956</v>
+        <v>614.6783440836244</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.5254613421722</v>
+        <v>841.0300280698858</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.5314524000702</v>
+        <v>760.7633025839531</v>
       </c>
       <c r="AD4" t="n">
-        <v>490062.7403156956</v>
+        <v>614678.3440836244</v>
       </c>
       <c r="AE4" t="n">
-        <v>670525.4613421722</v>
+        <v>841030.0280698858</v>
       </c>
       <c r="AF4" t="n">
         <v>7.513763618589207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.85026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>606531.4524000701</v>
+        <v>760763.3025839531</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1014.194209370422</v>
+        <v>1207.080367393755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1387.66526035132</v>
+        <v>1651.580611295563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1255.228435503815</v>
+        <v>1493.95607576146</v>
       </c>
       <c r="AD2" t="n">
-        <v>1014194.209370422</v>
+        <v>1207080.367393755</v>
       </c>
       <c r="AE2" t="n">
-        <v>1387665.26035132</v>
+        <v>1651580.611295563</v>
       </c>
       <c r="AF2" t="n">
         <v>4.598536310609848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1255228.435503815</v>
+        <v>1493956.07576146</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.3665093394684</v>
+        <v>743.3802901810025</v>
       </c>
       <c r="AB3" t="n">
-        <v>832.3938973144353</v>
+        <v>1017.125708649452</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.9513920269171</v>
+        <v>920.0526585608455</v>
       </c>
       <c r="AD3" t="n">
-        <v>608366.5093394684</v>
+        <v>743380.2901810025</v>
       </c>
       <c r="AE3" t="n">
-        <v>832393.8973144353</v>
+        <v>1017125.708649452</v>
       </c>
       <c r="AF3" t="n">
         <v>6.447968252780933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.33723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>752951.3920269171</v>
+        <v>920052.6585608455</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.4206571605318</v>
+        <v>630.8506673763403</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.5388407127499</v>
+        <v>863.1577142715291</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.5393443359831</v>
+        <v>780.7791534709143</v>
       </c>
       <c r="AD4" t="n">
-        <v>505420.6571605318</v>
+        <v>630850.6673763404</v>
       </c>
       <c r="AE4" t="n">
-        <v>691538.8407127499</v>
+        <v>863157.7142715291</v>
       </c>
       <c r="AF4" t="n">
         <v>7.134838233353036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.70703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>625539.344335983</v>
+        <v>780779.1534709142</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.228848127007</v>
+        <v>629.6588583428155</v>
       </c>
       <c r="AB5" t="n">
-        <v>689.9081550141774</v>
+        <v>861.5270285729565</v>
       </c>
       <c r="AC5" t="n">
-        <v>624.0642889918005</v>
+        <v>779.3040981267318</v>
       </c>
       <c r="AD5" t="n">
-        <v>504228.848127007</v>
+        <v>629658.8583428155</v>
       </c>
       <c r="AE5" t="n">
-        <v>689908.1550141774</v>
+        <v>861527.0285729566</v>
       </c>
       <c r="AF5" t="n">
         <v>7.147021579480645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>624064.2889918005</v>
+        <v>779304.0981267318</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1398.833934067935</v>
+        <v>1623.379138533672</v>
       </c>
       <c r="AB2" t="n">
-        <v>1913.946300789491</v>
+        <v>2221.178955774787</v>
       </c>
       <c r="AC2" t="n">
-        <v>1731.281952082646</v>
+        <v>2009.192753679885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1398833.934067935</v>
+        <v>1623379.138533672</v>
       </c>
       <c r="AE2" t="n">
-        <v>1913946.300789491</v>
+        <v>2221178.955774787</v>
       </c>
       <c r="AF2" t="n">
         <v>3.518995058607799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.53385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1731281.952082646</v>
+        <v>2009192.753679885</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>735.3567456365677</v>
+        <v>881.7992702881357</v>
       </c>
       <c r="AB3" t="n">
-        <v>1006.147541029953</v>
+        <v>1206.516663846451</v>
       </c>
       <c r="AC3" t="n">
-        <v>910.1222318509969</v>
+        <v>1091.368406805718</v>
       </c>
       <c r="AD3" t="n">
-        <v>735356.7456365677</v>
+        <v>881799.2702881357</v>
       </c>
       <c r="AE3" t="n">
-        <v>1006147.541029953</v>
+        <v>1206516.663846451</v>
       </c>
       <c r="AF3" t="n">
         <v>5.403028292181915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.65494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>910122.2318509968</v>
+        <v>1091368.406805718</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>609.9170608597047</v>
+        <v>736.7665957500258</v>
       </c>
       <c r="AB4" t="n">
-        <v>834.5154303099278</v>
+        <v>1008.076560153384</v>
       </c>
       <c r="AC4" t="n">
-        <v>754.8704488909102</v>
+        <v>911.8671480966825</v>
       </c>
       <c r="AD4" t="n">
-        <v>609917.0608597047</v>
+        <v>736766.5957500258</v>
       </c>
       <c r="AE4" t="n">
-        <v>834515.4303099278</v>
+        <v>1008076.560153384</v>
       </c>
       <c r="AF4" t="n">
         <v>6.114063172886764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.20442708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>754870.4488909103</v>
+        <v>911867.1480966825</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>539.9516418297803</v>
+        <v>666.834331109025</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.785657336743</v>
+        <v>912.3921504777928</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.2769910927059</v>
+        <v>825.3147241866175</v>
       </c>
       <c r="AD5" t="n">
-        <v>539951.6418297803</v>
+        <v>666834.331109025</v>
       </c>
       <c r="AE5" t="n">
-        <v>738785.6573367431</v>
+        <v>912392.1504777928</v>
       </c>
       <c r="AF5" t="n">
         <v>6.501452893284629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.6484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>668276.9910927059</v>
+        <v>825314.7241866174</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>529.4772627485937</v>
+        <v>646.5639626621436</v>
       </c>
       <c r="AB6" t="n">
-        <v>724.4541497808716</v>
+        <v>884.6573381032279</v>
       </c>
       <c r="AC6" t="n">
-        <v>655.3132625035697</v>
+        <v>800.2268833790273</v>
       </c>
       <c r="AD6" t="n">
-        <v>529477.2627485937</v>
+        <v>646563.9626621436</v>
       </c>
       <c r="AE6" t="n">
-        <v>724454.1497808716</v>
+        <v>884657.3381032279</v>
       </c>
       <c r="AF6" t="n">
         <v>6.582425712859533e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.34244791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>655313.2625035697</v>
+        <v>800226.8833790272</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>728.3588747169093</v>
+        <v>890.1603231146318</v>
       </c>
       <c r="AB2" t="n">
-        <v>996.5727453134006</v>
+        <v>1217.95662518728</v>
       </c>
       <c r="AC2" t="n">
-        <v>901.4612411993216</v>
+        <v>1101.716554292265</v>
       </c>
       <c r="AD2" t="n">
-        <v>728358.8747169094</v>
+        <v>890160.3231146317</v>
       </c>
       <c r="AE2" t="n">
-        <v>996572.7453134005</v>
+        <v>1217956.62518728</v>
       </c>
       <c r="AF2" t="n">
         <v>6.14258588966165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>901461.2411993217</v>
+        <v>1101716.554292265</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.0178096035411</v>
+        <v>612.6729702367347</v>
       </c>
       <c r="AB3" t="n">
-        <v>669.0957410427131</v>
+        <v>838.2861871017213</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.2381825993664</v>
+        <v>758.2813299467853</v>
       </c>
       <c r="AD3" t="n">
-        <v>489017.8096035412</v>
+        <v>612672.9702367347</v>
       </c>
       <c r="AE3" t="n">
-        <v>669095.7410427132</v>
+        <v>838286.1871017213</v>
       </c>
       <c r="AF3" t="n">
         <v>7.896689962148946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.29296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>605238.1825993664</v>
+        <v>758281.3299467852</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.442083417269</v>
+        <v>612.0972440504627</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.3080070754089</v>
+        <v>837.4984531344171</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.5256288563102</v>
+        <v>757.5687762037289</v>
       </c>
       <c r="AD4" t="n">
-        <v>488442.0834172691</v>
+        <v>612097.2440504627</v>
       </c>
       <c r="AE4" t="n">
-        <v>668308.0070754089</v>
+        <v>837498.4531344171</v>
       </c>
       <c r="AF4" t="n">
         <v>7.914792487997599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.24088541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>604525.6288563102</v>
+        <v>757568.776203729</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.0594395036607</v>
+        <v>691.039274614582</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.6155920387079</v>
+        <v>945.5104220288387</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.7870162371504</v>
+        <v>855.2722343826175</v>
       </c>
       <c r="AD2" t="n">
-        <v>550059.4395036607</v>
+        <v>691039.2746145821</v>
       </c>
       <c r="AE2" t="n">
-        <v>752615.5920387078</v>
+        <v>945510.4220288387</v>
       </c>
       <c r="AF2" t="n">
         <v>7.934889724954197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>680787.0162371504</v>
+        <v>855272.2343826175</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.3988995071956</v>
+        <v>601.5437134918998</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.9347238925293</v>
+        <v>823.0586470352825</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.3332344543925</v>
+        <v>744.5070849323007</v>
       </c>
       <c r="AD3" t="n">
-        <v>479398.8995071956</v>
+        <v>601543.7134918998</v>
       </c>
       <c r="AE3" t="n">
-        <v>655934.7238925293</v>
+        <v>823058.6470352826</v>
       </c>
       <c r="AF3" t="n">
         <v>8.689862525024584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.13932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>593333.2344543925</v>
+        <v>744507.0849323007</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.3311539878082</v>
+        <v>607.5132126084552</v>
       </c>
       <c r="AB2" t="n">
-        <v>653.1055432504093</v>
+        <v>831.2263790822681</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.7740668419765</v>
+        <v>751.8953000962059</v>
       </c>
       <c r="AD2" t="n">
-        <v>477331.1539878083</v>
+        <v>607513.2126084552</v>
       </c>
       <c r="AE2" t="n">
-        <v>653105.5432504093</v>
+        <v>831226.3790822681</v>
       </c>
       <c r="AF2" t="n">
         <v>9.332019323277843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.33723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>590774.0668419765</v>
+        <v>751895.3000962059</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.435985558127</v>
+        <v>608.6180441787739</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.6172225466482</v>
+        <v>832.7380583785069</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.1414735878375</v>
+        <v>753.2627068420669</v>
       </c>
       <c r="AD3" t="n">
-        <v>478435.9855581269</v>
+        <v>608618.0441787739</v>
       </c>
       <c r="AE3" t="n">
-        <v>654617.2225466482</v>
+        <v>832738.0583785069</v>
       </c>
       <c r="AF3" t="n">
         <v>9.345732509788663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>592141.4735878375</v>
+        <v>753262.706842067</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.3736236901392</v>
+        <v>663.1897511174578</v>
       </c>
       <c r="AB2" t="n">
-        <v>707.8934168462249</v>
+        <v>907.4054753458092</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.3330626770711</v>
+        <v>820.803970330388</v>
       </c>
       <c r="AD2" t="n">
-        <v>517373.6236901392</v>
+        <v>663189.7511174579</v>
       </c>
       <c r="AE2" t="n">
-        <v>707893.4168462249</v>
+        <v>907405.4753458092</v>
       </c>
       <c r="AF2" t="n">
         <v>1.046398369339888e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>640333.0626770711</v>
+        <v>820803.9703303879</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>932.7326965366856</v>
+        <v>1115.486799770032</v>
       </c>
       <c r="AB2" t="n">
-        <v>1276.206024663896</v>
+        <v>1526.258251249768</v>
       </c>
       <c r="AC2" t="n">
-        <v>1154.406712836378</v>
+        <v>1380.594305867399</v>
       </c>
       <c r="AD2" t="n">
-        <v>932732.6965366856</v>
+        <v>1115486.799770032</v>
       </c>
       <c r="AE2" t="n">
-        <v>1276206.024663896</v>
+        <v>1526258.251249768</v>
       </c>
       <c r="AF2" t="n">
         <v>4.923175739932056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1154406.712836378</v>
+        <v>1380594.305867399</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.1107548461991</v>
+        <v>706.762682118459</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.7871745257424</v>
+        <v>967.0238818434254</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.0790652377044</v>
+        <v>874.7324797868306</v>
       </c>
       <c r="AD3" t="n">
-        <v>572110.7548461992</v>
+        <v>706762.682118459</v>
       </c>
       <c r="AE3" t="n">
-        <v>782787.1745257424</v>
+        <v>967023.8818434254</v>
       </c>
       <c r="AF3" t="n">
         <v>6.77190687303292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.76432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>708079.0652377044</v>
+        <v>874732.4797868306</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.810079575405</v>
+        <v>621.8415716554476</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.7574685889061</v>
+        <v>850.8310720529512</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.8823698323793</v>
+        <v>769.6289486851264</v>
       </c>
       <c r="AD4" t="n">
-        <v>496810.079575405</v>
+        <v>621841.5716554476</v>
       </c>
       <c r="AE4" t="n">
-        <v>679757.4685889061</v>
+        <v>850831.0720529512</v>
       </c>
       <c r="AF4" t="n">
         <v>7.323102121269588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>614882.3698323793</v>
+        <v>769628.9486851264</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.8761829197173</v>
+        <v>621.90767499976</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.8479141008679</v>
+        <v>850.9215175649131</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.9641833516206</v>
+        <v>769.7107622043677</v>
       </c>
       <c r="AD5" t="n">
-        <v>496876.1829197173</v>
+        <v>621907.67499976</v>
       </c>
       <c r="AE5" t="n">
-        <v>679847.9141008679</v>
+        <v>850921.517564913</v>
       </c>
       <c r="AF5" t="n">
         <v>7.338969863264279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.69401041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>614964.1833516206</v>
+        <v>769710.7622043677</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1288.773224942295</v>
+        <v>1512.640456342811</v>
       </c>
       <c r="AB2" t="n">
-        <v>1763.35638302799</v>
+        <v>2069.66140535539</v>
       </c>
       <c r="AC2" t="n">
-        <v>1595.064124718026</v>
+        <v>1872.135825616297</v>
       </c>
       <c r="AD2" t="n">
-        <v>1288773.224942294</v>
+        <v>1512640.456342811</v>
       </c>
       <c r="AE2" t="n">
-        <v>1763356.38302799</v>
+        <v>2069661.40535539</v>
       </c>
       <c r="AF2" t="n">
         <v>3.759333082534506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.56119791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1595064.124718026</v>
+        <v>1872135.825616297</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.6044264469356</v>
+        <v>853.5478731148494</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.1755935687862</v>
+        <v>1167.861855870281</v>
       </c>
       <c r="AC3" t="n">
-        <v>875.7742737615605</v>
+        <v>1056.40275945043</v>
       </c>
       <c r="AD3" t="n">
-        <v>707604.4264469356</v>
+        <v>853547.8731148493</v>
       </c>
       <c r="AE3" t="n">
-        <v>968175.5935687862</v>
+        <v>1167861.855870281</v>
       </c>
       <c r="AF3" t="n">
         <v>5.635352228037507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>875774.2737615604</v>
+        <v>1056402.75945043</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.9245307674453</v>
+        <v>715.1648030313225</v>
       </c>
       <c r="AB4" t="n">
-        <v>792.1100833437695</v>
+        <v>978.5200343518189</v>
       </c>
       <c r="AC4" t="n">
-        <v>716.5122087229237</v>
+        <v>885.1314556347744</v>
       </c>
       <c r="AD4" t="n">
-        <v>578924.5307674452</v>
+        <v>715164.8030313225</v>
       </c>
       <c r="AE4" t="n">
-        <v>792110.0833437694</v>
+        <v>978520.034351819</v>
       </c>
       <c r="AF4" t="n">
         <v>6.337916115593136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.83984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>716512.2087229236</v>
+        <v>885131.4556347744</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>523.1295666491943</v>
+        <v>649.5661903124073</v>
       </c>
       <c r="AB5" t="n">
-        <v>715.7689519370857</v>
+        <v>888.7651184232549</v>
       </c>
       <c r="AC5" t="n">
-        <v>647.456967752243</v>
+        <v>803.9426229106167</v>
       </c>
       <c r="AD5" t="n">
-        <v>523129.5666491943</v>
+        <v>649566.1903124073</v>
       </c>
       <c r="AE5" t="n">
-        <v>715768.9519370857</v>
+        <v>888765.1184232549</v>
       </c>
       <c r="AF5" t="n">
         <v>6.704416503766623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>647456.967752243</v>
+        <v>803942.6229106167</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.1829147155967</v>
+        <v>639.9515404234114</v>
       </c>
       <c r="AB6" t="n">
-        <v>715.841945115088</v>
+        <v>875.6099302767138</v>
       </c>
       <c r="AC6" t="n">
-        <v>647.5229945637833</v>
+        <v>792.0429474573592</v>
       </c>
       <c r="AD6" t="n">
-        <v>523182.9147155967</v>
+        <v>639951.5404234114</v>
       </c>
       <c r="AE6" t="n">
-        <v>715841.945115088</v>
+        <v>875609.9302767138</v>
       </c>
       <c r="AF6" t="n">
         <v>6.713723651578854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.39453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>647522.9945637833</v>
+        <v>792042.9474573592</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.7555895829574</v>
+        <v>754.2806459001389</v>
       </c>
       <c r="AB2" t="n">
-        <v>785.0377099775623</v>
+        <v>1032.040056234129</v>
       </c>
       <c r="AC2" t="n">
-        <v>710.114812744649</v>
+        <v>933.5436017444595</v>
       </c>
       <c r="AD2" t="n">
-        <v>573755.5895829574</v>
+        <v>754280.6459001389</v>
       </c>
       <c r="AE2" t="n">
-        <v>785037.7099775623</v>
+        <v>1032040.056234129</v>
       </c>
       <c r="AF2" t="n">
         <v>1.052175637153189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>710114.812744649</v>
+        <v>933543.6017444595</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.258380724629</v>
+        <v>755.2797756552998</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.7729745057684</v>
+        <v>1033.407109643634</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.8669222020948</v>
+        <v>934.7801854952329</v>
       </c>
       <c r="AD2" t="n">
-        <v>604258.3807246289</v>
+        <v>755279.7756552998</v>
       </c>
       <c r="AE2" t="n">
-        <v>826772.9745057684</v>
+        <v>1033407.109643634</v>
       </c>
       <c r="AF2" t="n">
         <v>7.246670442920311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.88932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>747866.9222020948</v>
+        <v>934780.1854952329</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.4485241294229</v>
+        <v>607.5837033390648</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.529646022399</v>
+        <v>831.3228276097198</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.4440096301129</v>
+        <v>751.9825437115638</v>
       </c>
       <c r="AD3" t="n">
-        <v>475448.524129423</v>
+        <v>607583.7033390647</v>
       </c>
       <c r="AE3" t="n">
-        <v>650529.646022399</v>
+        <v>831322.8276097197</v>
       </c>
       <c r="AF3" t="n">
         <v>8.406763172442997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.76171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>588444.0096301129</v>
+        <v>751982.5437115638</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>789.0722605592379</v>
+        <v>960.9929928058756</v>
       </c>
       <c r="AB2" t="n">
-        <v>1079.64347830842</v>
+        <v>1314.873008775681</v>
       </c>
       <c r="AC2" t="n">
-        <v>976.6038200278022</v>
+        <v>1189.383374253988</v>
       </c>
       <c r="AD2" t="n">
-        <v>789072.2605592379</v>
+        <v>960992.9928058756</v>
       </c>
       <c r="AE2" t="n">
-        <v>1079643.47830842</v>
+        <v>1314873.008775681</v>
       </c>
       <c r="AF2" t="n">
         <v>5.6937428814966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.87369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>976603.8200278021</v>
+        <v>1189383.374253988</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.7309403096957</v>
+        <v>632.9452636482841</v>
       </c>
       <c r="AB3" t="n">
-        <v>696.0681161568214</v>
+        <v>866.0236332978683</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.6363520885503</v>
+        <v>783.3715532077223</v>
       </c>
       <c r="AD3" t="n">
-        <v>508730.9403096957</v>
+        <v>632945.2636482841</v>
       </c>
       <c r="AE3" t="n">
-        <v>696068.1161568214</v>
+        <v>866023.6332978683</v>
       </c>
       <c r="AF3" t="n">
         <v>7.535470222509313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.59244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>629636.3520885503</v>
+        <v>783371.5532077223</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.2515464801712</v>
+        <v>608.8777674807138</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.2567707334935</v>
+        <v>833.0934232584048</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.7157736670268</v>
+        <v>753.5841561965849</v>
       </c>
       <c r="AD4" t="n">
-        <v>494251.5464801712</v>
+        <v>608877.7674807138</v>
       </c>
       <c r="AE4" t="n">
-        <v>676256.7707334935</v>
+        <v>833093.4232584047</v>
       </c>
       <c r="AF4" t="n">
         <v>7.703142359394176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>611715.7736670269</v>
+        <v>753584.1561965849</v>
       </c>
     </row>
   </sheetData>
